--- a/public/files/contoh rapel manfaat.xlsx
+++ b/public/files/contoh rapel manfaat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\rohman\1 PHT\DAPEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC532EC0-1D07-4FE4-B01F-DB4053877D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DF66A-F6CE-4F15-9676-E8D1CD5F65C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E19FFF5-2BAF-4F21-812C-E6CCD4CE39B2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Jenis Transaksi</t>
   </si>
@@ -216,6 +216,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -223,18 +235,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0650C-83BC-43B8-BFD5-EA223C6539B0}">
-  <dimension ref="B4:N12"/>
+  <dimension ref="B4:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,75 +576,75 @@
   <sheetData>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -769,8 +769,54 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>40948</v>
+      </c>
+      <c r="G13" s="2">
+        <v>222</v>
+      </c>
+      <c r="H13" s="2">
+        <v>43564</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3">
+        <v>43957</v>
+      </c>
+      <c r="K13" s="3">
+        <v>43977</v>
+      </c>
+      <c r="L13" s="2">
+        <v>222222</v>
+      </c>
+      <c r="M13" s="2">
+        <v>444444</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="N7:N9"/>
@@ -779,11 +825,6 @@
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="K7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/files/contoh rapel manfaat.xlsx
+++ b/public/files/contoh rapel manfaat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\rohman\1 PHT\DAPEN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bagus Nurcahyo Putra\PERHUTANI\PROJECT DAPEN PERHUTANI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DF66A-F6CE-4F15-9676-E8D1CD5F65C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5494349-C0B7-4D91-9D73-66B822B3C18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E19FFF5-2BAF-4F21-812C-E6CCD4CE39B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{0E19FFF5-2BAF-4F21-812C-E6CCD4CE39B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Jenis Transaksi</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>wwwww</t>
+  </si>
+  <si>
+    <t>rfsg</t>
   </si>
 </sst>
 </file>
@@ -216,6 +219,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -226,15 +238,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,14 +556,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0650C-83BC-43B8-BFD5-EA223C6539B0}">
   <dimension ref="B4:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -576,75 +579,75 @@
   <sheetData>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
@@ -707,7 +710,7 @@
         <v>211</v>
       </c>
       <c r="H11" s="2">
-        <v>43564</v>
+        <v>435643</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>18</v>
@@ -748,7 +751,7 @@
         <v>222</v>
       </c>
       <c r="H12" s="2">
-        <v>43564</v>
+        <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>19</v>
@@ -789,10 +792,10 @@
         <v>222</v>
       </c>
       <c r="H13" s="2">
-        <v>43564</v>
+        <v>4341</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="3">
         <v>43957</v>
@@ -812,11 +815,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L9"/>
     <mergeCell ref="M7:M9"/>
     <mergeCell ref="N7:N9"/>
@@ -825,6 +823,11 @@
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="K7:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/files/contoh rapel manfaat.xlsx
+++ b/public/files/contoh rapel manfaat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\rohman\1 PHT\DAPEN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dapen\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DF66A-F6CE-4F15-9676-E8D1CD5F65C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D8706B-E7E6-4EC6-97E4-1854274F2547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E19FFF5-2BAF-4F21-812C-E6CCD4CE39B2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Jenis Transaksi</t>
   </si>
@@ -81,16 +81,58 @@
     <t>TRI SETYA PRATAM</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>AIH</t>
   </si>
   <si>
     <t>DENI</t>
   </si>
   <si>
-    <t>wwwww</t>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>BUDI</t>
+  </si>
+  <si>
+    <t>ASEP</t>
+  </si>
+  <si>
+    <t>ALDI</t>
+  </si>
+  <si>
+    <t>Rapel Manfaat Pensiun Bulanan</t>
+  </si>
+  <si>
+    <t>Extra Manfaat Pensiun Bulanan</t>
+  </si>
+  <si>
+    <t>MP Bulanan - Potongan Persatuan Pensiunan</t>
+  </si>
+  <si>
+    <t>MP Bulanan - Potongan Pinjaman</t>
+  </si>
+  <si>
+    <t>AIJ</t>
+  </si>
+  <si>
+    <t>AIK</t>
+  </si>
+  <si>
+    <t>APH-MP</t>
+  </si>
+  <si>
+    <t>APH-OBL</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>KET</t>
+  </si>
+  <si>
+    <t>TES</t>
+  </si>
+  <si>
+    <t>extra</t>
   </si>
 </sst>
 </file>
@@ -135,27 +177,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -179,9 +206,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -192,14 +217,16 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -216,25 +243,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -551,113 +579,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0650C-83BC-43B8-BFD5-EA223C6539B0}">
-  <dimension ref="B4:N13"/>
+  <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>1000001</v>
       </c>
       <c r="F10" s="3">
         <v>44080</v>
@@ -678,13 +708,13 @@
         <v>43977</v>
       </c>
       <c r="L10" s="2">
-        <v>10000000</v>
+        <v>9909</v>
       </c>
       <c r="M10" s="2">
         <v>2000000</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -695,13 +725,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>1000002</v>
       </c>
       <c r="F11" s="3">
-        <v>40948</v>
+        <v>40949</v>
       </c>
       <c r="G11" s="2">
         <v>211</v>
@@ -710,22 +740,22 @@
         <v>43564</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="3">
-        <v>43957</v>
+        <v>43952</v>
       </c>
       <c r="K11" s="3">
-        <v>43977</v>
+        <v>43953</v>
       </c>
       <c r="L11" s="2">
-        <v>222222</v>
+        <v>10023</v>
       </c>
       <c r="M11" s="2">
-        <v>444444</v>
+        <v>4353456</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -733,40 +763,40 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>1000003</v>
       </c>
       <c r="F12" s="3">
         <v>40948</v>
       </c>
       <c r="G12" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H12" s="2">
-        <v>43564</v>
+        <v>43561</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="3">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="K12" s="3">
-        <v>43977</v>
+        <v>43970</v>
       </c>
       <c r="L12" s="2">
-        <v>222222</v>
+        <v>102389</v>
       </c>
       <c r="M12" s="2">
-        <v>444444</v>
+        <v>67546</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -774,41 +804,138 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>1000004</v>
       </c>
       <c r="F13" s="3">
-        <v>40948</v>
+        <v>40959</v>
       </c>
       <c r="G13" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H13" s="2">
-        <v>43564</v>
+        <v>43565</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="J13" s="3">
+        <v>43954</v>
+      </c>
+      <c r="K13" s="3">
+        <v>43971</v>
+      </c>
+      <c r="L13" s="2">
+        <v>23912</v>
+      </c>
+      <c r="M13" s="2">
+        <v>234234</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1000005</v>
+      </c>
+      <c r="F14" s="3">
+        <v>40950</v>
+      </c>
+      <c r="G14" s="2">
+        <v>220</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4352222</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="3">
+        <v>43955</v>
+      </c>
+      <c r="K14" s="3">
+        <v>43972</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4521</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4634</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1000006</v>
+      </c>
+      <c r="F15" s="3">
+        <v>40960</v>
+      </c>
+      <c r="G15" s="2">
+        <v>290</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43500000</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="3">
         <v>43957</v>
       </c>
-      <c r="K13" s="3">
-        <v>43977</v>
-      </c>
-      <c r="L13" s="2">
-        <v>222222</v>
-      </c>
-      <c r="M13" s="2">
-        <v>444444</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="K15" s="3">
+        <v>43976</v>
+      </c>
+      <c r="L15" s="2">
+        <v>43211</v>
+      </c>
+      <c r="M15" s="2">
+        <v>12354</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -816,15 +943,15 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
     <mergeCell ref="N7:N9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/public/files/contoh rapel manfaat.xlsx
+++ b/public/files/contoh rapel manfaat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\rohman\1 EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6068B84-D731-45F7-9787-E12C8D504CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B2E1C4-A131-4E3D-BCBF-CCFA27995622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E19FFF5-2BAF-4F21-812C-E6CCD4CE39B2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Jenis Transaksi</t>
   </si>
@@ -78,15 +78,9 @@
     <t>AIB</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>AIH</t>
   </si>
   <si>
-    <t>DENI</t>
-  </si>
-  <si>
     <t>tes ubah lagi</t>
   </si>
   <si>
@@ -105,16 +99,22 @@
     <t>Extra Manfaat 4</t>
   </si>
   <si>
-    <t>AIJ</t>
-  </si>
-  <si>
-    <t>ADIT</t>
-  </si>
-  <si>
-    <t>ASEP</t>
-  </si>
-  <si>
-    <t>ILHAM</t>
+    <t>ARDI</t>
+  </si>
+  <si>
+    <t>DANI</t>
+  </si>
+  <si>
+    <t>ALIM</t>
+  </si>
+  <si>
+    <t>Extra Manfaat 5</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>AIK</t>
   </si>
 </sst>
 </file>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0650C-83BC-43B8-BFD5-EA223C6539B0}">
-  <dimension ref="B4:N13"/>
+  <dimension ref="B4:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3">
         <v>44080</v>
@@ -690,10 +690,10 @@
         <v>212</v>
       </c>
       <c r="H10" s="2">
-        <v>292900</v>
+        <v>1000001</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J10" s="3">
         <v>43957</v>
@@ -708,7 +708,7 @@
         <v>2000000</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -716,13 +716,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3">
         <v>40948</v>
@@ -731,10 +731,10 @@
         <v>211</v>
       </c>
       <c r="H11" s="2">
-        <v>435643</v>
+        <v>1000002</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J11" s="3">
         <v>43957</v>
@@ -749,7 +749,7 @@
         <v>444444</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3">
         <v>40948</v>
@@ -772,10 +772,10 @@
         <v>222</v>
       </c>
       <c r="H12" s="2">
-        <v>2</v>
+        <v>1000003</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J12" s="3">
         <v>43957</v>
@@ -790,7 +790,7 @@
         <v>444444</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -798,13 +798,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F13" s="3">
         <v>40948</v>
@@ -813,10 +813,10 @@
         <v>222</v>
       </c>
       <c r="H13" s="2">
-        <v>4341</v>
+        <v>1000004</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J13" s="3">
         <v>43957</v>
@@ -831,7 +831,48 @@
         <v>444444</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3">
+        <v>40948</v>
+      </c>
+      <c r="G14" s="2">
+        <v>222</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000005</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
+        <v>43957</v>
+      </c>
+      <c r="K14" s="3">
+        <v>43977</v>
+      </c>
+      <c r="L14" s="2">
+        <v>222222</v>
+      </c>
+      <c r="M14" s="2">
+        <v>444444</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/contoh rapel manfaat.xlsx
+++ b/public/files/contoh rapel manfaat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\rohman\1 EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\rohman\1 PHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B2E1C4-A131-4E3D-BCBF-CCFA27995622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079A510E-ECD0-4DA2-AA44-E12314213AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0E19FFF5-2BAF-4F21-812C-E6CCD4CE39B2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Jenis Transaksi</t>
   </si>
@@ -78,43 +78,61 @@
     <t>AIB</t>
   </si>
   <si>
+    <t>TRI SETYA PRATAM</t>
+  </si>
+  <si>
     <t>AIH</t>
   </si>
   <si>
-    <t>tes ubah lagi</t>
-  </si>
-  <si>
-    <t>lagi3</t>
-  </si>
-  <si>
-    <t>lagi 2</t>
-  </si>
-  <si>
-    <t>Extra Manfaat 2</t>
-  </si>
-  <si>
-    <t>Extra Manfaat 3</t>
-  </si>
-  <si>
-    <t>Extra Manfaat 4</t>
-  </si>
-  <si>
-    <t>ARDI</t>
-  </si>
-  <si>
-    <t>DANI</t>
-  </si>
-  <si>
-    <t>ALIM</t>
-  </si>
-  <si>
-    <t>Extra Manfaat 5</t>
-  </si>
-  <si>
-    <t>AIG</t>
+    <t>DENI</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>BUDI</t>
+  </si>
+  <si>
+    <t>ASEP</t>
+  </si>
+  <si>
+    <t>ALDI</t>
+  </si>
+  <si>
+    <t>Extra Manfaat Pensiun Uang Muka</t>
+  </si>
+  <si>
+    <t>Rapel Manfaat Pensiun Bulanan</t>
+  </si>
+  <si>
+    <t>Extra Manfaat Pensiun Bulanan</t>
+  </si>
+  <si>
+    <t>MP Bulanan - Potongan Persatuan Pensiunan</t>
+  </si>
+  <si>
+    <t>MP Bulanan - Potongan Pinjaman</t>
+  </si>
+  <si>
+    <t>AIJ</t>
   </si>
   <si>
     <t>AIK</t>
+  </si>
+  <si>
+    <t>APH-MP</t>
+  </si>
+  <si>
+    <t>APH-OBL</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>KET</t>
+  </si>
+  <si>
+    <t>TES</t>
   </si>
 </sst>
 </file>
@@ -159,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,48 +200,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -240,25 +221,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,113 +541,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB0650C-83BC-43B8-BFD5-EA223C6539B0}">
-  <dimension ref="B4:N14"/>
+  <dimension ref="B1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="26.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>38</v>
+        <v>1000007</v>
       </c>
       <c r="F10" s="3">
         <v>44080</v>
@@ -690,10 +657,10 @@
         <v>212</v>
       </c>
       <c r="H10" s="2">
-        <v>1000001</v>
+        <v>2929</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J10" s="3">
         <v>43957</v>
@@ -702,13 +669,13 @@
         <v>43977</v>
       </c>
       <c r="L10" s="2">
-        <v>10000000</v>
+        <v>9909</v>
       </c>
       <c r="M10" s="2">
         <v>2000000</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -716,40 +683,40 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2">
-        <v>39</v>
+        <v>1000008</v>
       </c>
       <c r="F11" s="3">
-        <v>40948</v>
+        <v>40949</v>
       </c>
       <c r="G11" s="2">
         <v>211</v>
       </c>
       <c r="H11" s="2">
-        <v>1000002</v>
+        <v>43564</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J11" s="3">
-        <v>43957</v>
+        <v>43952</v>
       </c>
       <c r="K11" s="3">
-        <v>43977</v>
+        <v>43953</v>
       </c>
       <c r="L11" s="2">
-        <v>222222</v>
+        <v>10023</v>
       </c>
       <c r="M11" s="2">
-        <v>444444</v>
+        <v>4353456</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -757,40 +724,40 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2">
-        <v>40</v>
+        <v>1000009</v>
       </c>
       <c r="F12" s="3">
         <v>40948</v>
       </c>
       <c r="G12" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H12" s="2">
-        <v>1000003</v>
+        <v>43561</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J12" s="3">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="K12" s="3">
-        <v>43977</v>
+        <v>43970</v>
       </c>
       <c r="L12" s="2">
-        <v>222222</v>
+        <v>10238922</v>
       </c>
       <c r="M12" s="2">
-        <v>444444</v>
+        <v>67546</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -798,40 +765,40 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
-        <v>41</v>
+        <v>1000010</v>
       </c>
       <c r="F13" s="3">
-        <v>40948</v>
+        <v>40959</v>
       </c>
       <c r="G13" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H13" s="2">
-        <v>1000004</v>
+        <v>43565</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="K13" s="3">
-        <v>43977</v>
+        <v>43971</v>
       </c>
       <c r="L13" s="2">
-        <v>222222</v>
+        <v>23912</v>
       </c>
       <c r="M13" s="2">
-        <v>444444</v>
+        <v>234234</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -842,54 +809,95 @@
         <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2">
-        <v>42</v>
+        <v>1000011</v>
       </c>
       <c r="F14" s="3">
-        <v>40948</v>
+        <v>40950</v>
       </c>
       <c r="G14" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H14" s="2">
-        <v>1000005</v>
+        <v>4352222</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J14" s="3">
+        <v>43955</v>
+      </c>
+      <c r="K14" s="3">
+        <v>43972</v>
+      </c>
+      <c r="L14" s="2">
+        <v>4521</v>
+      </c>
+      <c r="M14" s="2">
+        <v>4634</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1000012</v>
+      </c>
+      <c r="F15" s="3">
+        <v>40960</v>
+      </c>
+      <c r="G15" s="2">
+        <v>290</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43500000</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="3">
         <v>43957</v>
       </c>
-      <c r="K14" s="3">
-        <v>43977</v>
-      </c>
-      <c r="L14" s="2">
-        <v>222222</v>
-      </c>
-      <c r="M14" s="2">
-        <v>444444</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>17</v>
+      <c r="K15" s="3">
+        <v>43976</v>
+      </c>
+      <c r="L15" s="2">
+        <v>43211</v>
+      </c>
+      <c r="M15" s="2">
+        <v>12354</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
     <mergeCell ref="N7:N9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
